--- a/게임 데이터.xlsx
+++ b/게임 데이터.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68AC5B22-749A-427E-A1F8-F570C0A43DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6359B5F1-2526-4AC5-9BA9-9F84DD5032B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{5DE46ADA-ACE9-4313-BE07-D63152852563}"/>
+    <workbookView xWindow="61210" yWindow="6490" windowWidth="28800" windowHeight="15500" xr2:uid="{5DE46ADA-ACE9-4313-BE07-D63152852563}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="game" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>account_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,14 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_boat_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 보로롱24호 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_gift_box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +229,34 @@
   </si>
   <si>
     <t>판매 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기를 사고 판 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어류 도감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 보로롱24호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인을 위한 사용자 계정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 플레이를 위한 사용자 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,12 +301,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -295,14 +330,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,441 +657,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C1106-E51B-4FF6-A0D9-BA9386E07A59}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.58203125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
+      <c r="B16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
+      <c r="B22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
-        <v>36</v>
+      <c r="B29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
-        <v>41</v>
+      <c r="B36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C41" t="s">
-        <v>46</v>
+      <c r="B42" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/게임 데이터.xlsx
+++ b/게임 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6359B5F1-2526-4AC5-9BA9-9F84DD5032B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E501F779-9CB8-41C6-8C19-C023BAD114E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61210" yWindow="6490" windowWidth="28800" windowHeight="15500" xr2:uid="{5DE46ADA-ACE9-4313-BE07-D63152852563}"/>
+    <workbookView xWindow="39460" yWindow="1060" windowWidth="28800" windowHeight="15500" xr2:uid="{5DE46ADA-ACE9-4313-BE07-D63152852563}"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>account_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,14 +129,6 @@
   </si>
   <si>
     <t>아이템 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 카테고리 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -657,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C1106-E51B-4FF6-A0D9-BA9386E07A59}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -675,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -738,7 +730,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -812,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -848,50 +840,50 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
+      <c r="B21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>29</v>
@@ -902,7 +894,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>31</v>
@@ -911,193 +903,171 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>4</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="2">
-        <v>2</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="2">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
+      <c r="C42" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>3</v>
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="2">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="2">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
